--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1174324.634346492</v>
+        <v>1179816.941309272</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977804</v>
+        <v>7966425.477977805</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +673,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>202.0373105160731</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>218.5426364843447</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>22.96189723698664</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>81.58755128763757</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>118.580671113506</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>327.9261420368017</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,10 +1150,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>102.3449752824669</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>108.8247535352249</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>268.4164659939104</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -1531,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>238.7861239104706</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -1661,16 +1663,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>190.1930244968585</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>53.03638470914573</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.9683453503086</v>
+        <v>167.9683453503095</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>40.51067877009771</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>179.4080122938798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>141.7125140321844</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2090,7 +2092,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>302.1480073738684</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>39.05356669127192</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>57.61608655197494</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>225.7724024010756</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>299.4895911336225</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>256.4561542453787</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>116.876383545772</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -2570,10 +2572,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>195.6255244520054</v>
       </c>
       <c r="I26" t="n">
-        <v>36.06860604239203</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>61.24043455025512</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>192.5253727288453</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>122.5446673791842</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>123.7833872496733</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2953,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.519394494172</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>81.37807272920193</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>336.6516357461772</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>264.535022796535</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.62179322558088</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3275,13 +3277,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>264.535022796535</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>141.460551723358</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,31 +3423,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>8.855771537814848</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.7440896514104</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,13 +3514,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>309.0259063600334</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>34.58254606642226</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3658,31 +3660,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>121.5013198905371</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,25 +3742,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>242.9097313408552</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>121.8395270492377</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>13.86039560144239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>180.112835785948</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -3983,16 +3985,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>163.7167028553534</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>274.98059230482</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -4153,7 +4155,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>108.1045920014103</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>80.50132893617878</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2073.376476849992</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C2" t="n">
-        <v>1680.200975352922</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D2" t="n">
-        <v>1294.75984656959</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E2" t="n">
-        <v>892.1763216861347</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F2" t="n">
-        <v>475.2818832161124</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G2" t="n">
         <v>62.11912770411553</v>
@@ -4361,19 +4363,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>2473.871222561389</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V2" t="n">
-        <v>2473.871222561389</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W2" t="n">
-        <v>2473.871222561389</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X2" t="n">
-        <v>2473.871222561389</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y2" t="n">
-        <v>2473.871222561389</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4409,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L3" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M3" t="n">
-        <v>1173.45686322911</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N3" t="n">
         <v>1223.947919817482</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.49739787801357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C4" t="n">
-        <v>92.49739787801357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D4" t="n">
-        <v>92.49739787801357</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E4" t="n">
-        <v>92.49739787801357</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F4" t="n">
-        <v>92.49739787801357</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G4" t="n">
-        <v>92.49739787801357</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H4" t="n">
-        <v>92.49739787801357</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I4" t="n">
         <v>92.49739787801357</v>
@@ -4510,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>92.49739787801357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W4" t="n">
-        <v>92.49739787801357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X4" t="n">
-        <v>92.49739787801357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y4" t="n">
-        <v>92.49739787801357</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>799.3649336496217</v>
+        <v>840.7357579845172</v>
       </c>
       <c r="C5" t="n">
-        <v>799.3649336496217</v>
+        <v>447.5602564874478</v>
       </c>
       <c r="D5" t="n">
-        <v>799.3649336496217</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E5" t="n">
-        <v>799.3649336496217</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F5" t="n">
-        <v>799.3649336496217</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G5" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
         <v>62.11912770411553</v>
@@ -4610,7 +4612,7 @@
         <v>1319.638135031227</v>
       </c>
       <c r="Y5" t="n">
-        <v>1199.859679361019</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4649,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K6" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L6" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M6" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N6" t="n">
         <v>1458.313011372373</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="C7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="D7" t="n">
-        <v>862.2091751078208</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="E7" t="n">
         <v>706.6503629670233</v>
@@ -4747,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="Y7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1216.259372119644</v>
+        <v>2211.713593757527</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.259372119644</v>
+        <v>1818.538092260458</v>
       </c>
       <c r="D8" t="n">
-        <v>1216.259372119644</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.259372119644</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F8" t="n">
-        <v>799.3649336496217</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G8" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4826,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U8" t="n">
-        <v>2422.196584426364</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V8" t="n">
-        <v>2080.089775129883</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W8" t="n">
-        <v>1709.09074009817</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X8" t="n">
-        <v>1319.638135031227</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="Y8" t="n">
-        <v>1216.259372119644</v>
+        <v>2542.952121067428</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4889,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L9" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M9" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N9" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O9" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P9" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="C10" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="D10" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="E10" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F10" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G10" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H10" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I10" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4987,25 +4989,25 @@
         <v>839.6651608782449</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T10" t="n">
-        <v>401.1300252290284</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U10" t="n">
-        <v>115.6912334709294</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V10" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W10" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X10" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>593.6317461087201</v>
+        <v>950.6597514544414</v>
       </c>
       <c r="C11" t="n">
-        <v>200.4562446116507</v>
+        <v>557.484249957372</v>
       </c>
       <c r="D11" t="n">
-        <v>200.4562446116507</v>
+        <v>172.0431211740397</v>
       </c>
       <c r="E11" t="n">
-        <v>200.4562446116507</v>
+        <v>172.0431211740397</v>
       </c>
       <c r="F11" t="n">
-        <v>200.4562446116507</v>
+        <v>172.0431211740397</v>
       </c>
       <c r="G11" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5057,34 +5059,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2422.196584426364</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V11" t="n">
-        <v>2151.068840998172</v>
+        <v>2508.096846343893</v>
       </c>
       <c r="W11" t="n">
-        <v>1780.069805966459</v>
+        <v>2137.097811312181</v>
       </c>
       <c r="X11" t="n">
-        <v>1390.617200899516</v>
+        <v>1747.645206245237</v>
       </c>
       <c r="Y11" t="n">
-        <v>994.1264918201171</v>
+        <v>1351.154497165838</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5129,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="E13" t="n">
         <v>706.6503629670233</v>
@@ -5221,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1178.900155517228</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="C14" t="n">
-        <v>1178.900155517228</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D14" t="n">
-        <v>1178.900155517228</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E14" t="n">
-        <v>937.702050557157</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H14" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5291,37 +5293,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S14" t="n">
-        <v>2901.449916432348</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T14" t="n">
-        <v>2677.949313991764</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U14" t="n">
-        <v>2677.949313991764</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V14" t="n">
-        <v>2335.842504695283</v>
+        <v>2230.082418267921</v>
       </c>
       <c r="W14" t="n">
-        <v>1964.84346966357</v>
+        <v>2230.082418267921</v>
       </c>
       <c r="X14" t="n">
-        <v>1575.390864596627</v>
+        <v>2230.082418267921</v>
       </c>
       <c r="Y14" t="n">
-        <v>1178.900155517228</v>
+        <v>1833.591709188522</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5342,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G15" t="n">
         <v>199.803798091603</v>
@@ -5352,28 +5354,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411551</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L16" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M16" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N16" t="n">
         <v>677.5630210573304</v>
@@ -5458,28 +5460,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U16" t="n">
-        <v>115.6912334709294</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V16" t="n">
-        <v>62.11912770411551</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W16" t="n">
-        <v>62.11912770411551</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X16" t="n">
-        <v>62.11912770411551</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5512,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5534,28 +5536,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y17" t="n">
         <v>2936.291389902433</v>
@@ -5577,10 +5579,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
         <v>199.803798091603</v>
@@ -5589,25 +5591,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411551</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411551</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
         <v>677.5630210573304</v>
@@ -5695,28 +5697,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S19" t="n">
-        <v>760.7500664282172</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T19" t="n">
-        <v>760.7500664282172</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U19" t="n">
-        <v>760.7500664282172</v>
+        <v>554.2263691201458</v>
       </c>
       <c r="V19" t="n">
-        <v>760.7500664282172</v>
+        <v>288.2470239409701</v>
       </c>
       <c r="W19" t="n">
-        <v>477.4196643593949</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="X19" t="n">
-        <v>243.3393421423779</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411551</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1548.519290316324</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C20" t="n">
-        <v>1405.375336748461</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D20" t="n">
-        <v>1019.934207965129</v>
+        <v>769.902660035923</v>
       </c>
       <c r="E20" t="n">
-        <v>617.350683081673</v>
+        <v>367.3191351524675</v>
       </c>
       <c r="F20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129427</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404046</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W20" t="n">
-        <v>2734.957350174063</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X20" t="n">
         <v>2345.50474510712</v>
       </c>
       <c r="Y20" t="n">
-        <v>1949.014036027721</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="21">
@@ -5814,10 +5816,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5826,13 +5828,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
         <v>545.6852136024288</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>257.2002879645017</v>
+        <v>446.1554259598287</v>
       </c>
       <c r="C22" t="n">
-        <v>257.2002879645017</v>
+        <v>275.9503080258179</v>
       </c>
       <c r="D22" t="n">
-        <v>101.5671748670164</v>
+        <v>120.3171949283326</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411551</v>
+        <v>120.3171949283326</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
         <v>677.5630210573304</v>
@@ -5938,22 +5940,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U22" t="n">
-        <v>442.408306655803</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V22" t="n">
-        <v>442.408306655803</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W22" t="n">
-        <v>442.408306655803</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="X22" t="n">
-        <v>442.408306655803</v>
+        <v>446.1554259598287</v>
       </c>
       <c r="Y22" t="n">
-        <v>442.408306655803</v>
+        <v>446.1554259598287</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2535.796644191037</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="C23" t="n">
-        <v>2142.621142693967</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="D23" t="n">
         <v>1757.180013910635</v>
@@ -5984,7 +5986,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6014,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V23" t="n">
-        <v>2763.849575909295</v>
+        <v>2157.674759622032</v>
       </c>
       <c r="W23" t="n">
-        <v>2763.849575909295</v>
+        <v>2157.674759622032</v>
       </c>
       <c r="X23" t="n">
-        <v>2763.849575909295</v>
+        <v>2157.674759622032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2763.849575909295</v>
+        <v>2157.674759622032</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,25 +6065,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411551</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
         <v>677.5630210573304</v>
@@ -6181,16 +6183,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="V25" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W25" t="n">
-        <v>704.5195297957904</v>
+        <v>414.2564029976698</v>
       </c>
       <c r="X25" t="n">
-        <v>470.4392075787734</v>
+        <v>180.1760807806529</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2040.716961182787</v>
+        <v>2270.978016700502</v>
       </c>
       <c r="C26" t="n">
-        <v>2040.716961182787</v>
+        <v>1877.802515203433</v>
       </c>
       <c r="D26" t="n">
-        <v>1655.275832399455</v>
+        <v>1492.361386420101</v>
       </c>
       <c r="E26" t="n">
-        <v>1252.692307516</v>
+        <v>1089.777861536645</v>
       </c>
       <c r="F26" t="n">
-        <v>835.7978690459773</v>
+        <v>672.8834230666229</v>
       </c>
       <c r="G26" t="n">
-        <v>422.6351135339805</v>
+        <v>259.720667554626</v>
       </c>
       <c r="H26" t="n">
-        <v>98.55206310047112</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6257,19 +6259,19 @@
         <v>3067.963471491298</v>
       </c>
       <c r="U26" t="n">
-        <v>2812.210741925897</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V26" t="n">
-        <v>2812.210741925897</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W26" t="n">
-        <v>2441.211706894184</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X26" t="n">
-        <v>2441.211706894184</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="Y26" t="n">
-        <v>2441.211706894184</v>
+        <v>2671.472762411899</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C27" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D27" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E27" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F27" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G27" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H27" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>900.7358324498676</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>900.7358324498676</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>1384.301918348181</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>1384.301918348181</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N27" t="n">
-        <v>2040.07988955874</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O27" t="n">
-        <v>2556.600172149721</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P27" t="n">
-        <v>2871.591293650886</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q27" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R27" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S27" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T27" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U27" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V27" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W27" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X27" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y27" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>217.677939844913</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="C28" t="n">
-        <v>217.677939844913</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="D28" t="n">
-        <v>217.677939844913</v>
+        <v>605.116953330732</v>
       </c>
       <c r="E28" t="n">
-        <v>62.11912770411553</v>
+        <v>449.5581411899345</v>
       </c>
       <c r="F28" t="n">
-        <v>62.11912770411553</v>
+        <v>292.2322064029075</v>
       </c>
       <c r="G28" t="n">
-        <v>62.11912770411553</v>
+        <v>123.978152502353</v>
       </c>
       <c r="H28" t="n">
         <v>62.11912770411553</v>
@@ -6409,25 +6411,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U28" t="n">
-        <v>678.1273584875689</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="V28" t="n">
-        <v>412.1480133083932</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="W28" t="n">
-        <v>217.677939844913</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="X28" t="n">
-        <v>217.677939844913</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.677939844913</v>
+        <v>760.7500664282172</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>799.3649336496217</v>
+        <v>857.8781540846405</v>
       </c>
       <c r="C29" t="n">
-        <v>799.3649336496217</v>
+        <v>464.702652587571</v>
       </c>
       <c r="D29" t="n">
-        <v>799.3649336496217</v>
+        <v>464.702652587571</v>
       </c>
       <c r="E29" t="n">
-        <v>799.3649336496217</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F29" t="n">
-        <v>799.3649336496217</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G29" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
         <v>62.11912770411553</v>
@@ -6461,10 +6463,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L29" t="n">
         <v>1059.071548358934</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U29" t="n">
-        <v>2422.196584426364</v>
+        <v>2757.422058270573</v>
       </c>
       <c r="V29" t="n">
-        <v>2080.089775129883</v>
+        <v>2415.315248974092</v>
       </c>
       <c r="W29" t="n">
-        <v>1709.09074009817</v>
+        <v>2044.316213942379</v>
       </c>
       <c r="X29" t="n">
-        <v>1319.638135031227</v>
+        <v>1654.863608875436</v>
       </c>
       <c r="Y29" t="n">
-        <v>923.1474259518279</v>
+        <v>1258.372899796037</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>839.6651608782449</v>
+        <v>457.1236869934889</v>
       </c>
       <c r="C31" t="n">
-        <v>839.6651608782449</v>
+        <v>457.1236869934889</v>
       </c>
       <c r="D31" t="n">
-        <v>698.7364795710005</v>
+        <v>457.1236869934889</v>
       </c>
       <c r="E31" t="n">
-        <v>543.177667430203</v>
+        <v>457.1236869934889</v>
       </c>
       <c r="F31" t="n">
-        <v>385.851732643176</v>
+        <v>299.7977522064619</v>
       </c>
       <c r="G31" t="n">
         <v>217.5976787426216</v>
@@ -6643,28 +6645,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W31" t="n">
-        <v>839.6651608782449</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="X31" t="n">
-        <v>839.6651608782449</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="Y31" t="n">
-        <v>839.6651608782449</v>
+        <v>457.1236869934889</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2080.089775129883</v>
+        <v>1510.526376601847</v>
       </c>
       <c r="C32" t="n">
-        <v>2080.089775129883</v>
+        <v>1117.350875104777</v>
       </c>
       <c r="D32" t="n">
-        <v>1694.64864634655</v>
+        <v>731.9097463214448</v>
       </c>
       <c r="E32" t="n">
-        <v>1354.596489027179</v>
+        <v>329.3262214379893</v>
       </c>
       <c r="F32" t="n">
-        <v>937.702050557157</v>
+        <v>329.3262214379893</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>329.3262214379893</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6725,25 +6727,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T32" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U32" t="n">
-        <v>2422.196584426364</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V32" t="n">
-        <v>2080.089775129883</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W32" t="n">
-        <v>2080.089775129883</v>
+        <v>2696.964436459586</v>
       </c>
       <c r="X32" t="n">
-        <v>2080.089775129883</v>
+        <v>2307.511831392642</v>
       </c>
       <c r="Y32" t="n">
-        <v>2080.089775129883</v>
+        <v>1911.021122313243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C33" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D33" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E33" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F33" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G33" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H33" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>787.6208502301403</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L33" t="n">
-        <v>1271.186936128453</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M33" t="n">
-        <v>1898.958585755135</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N33" t="n">
-        <v>2554.736556965694</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O33" t="n">
-        <v>3071.256839556675</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P33" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R33" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S33" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T33" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U33" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V33" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W33" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X33" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y33" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2204.509362664224</v>
+        <v>2414.305903262296</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.509362664224</v>
+        <v>2360.142475761709</v>
       </c>
       <c r="D34" t="n">
         <v>2204.509362664224</v>
@@ -6886,22 +6888,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T34" t="n">
-        <v>3039.257901670321</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U34" t="n">
-        <v>2753.819109912222</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V34" t="n">
-        <v>2487.839764733046</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W34" t="n">
-        <v>2204.509362664224</v>
+        <v>2822.625983136954</v>
       </c>
       <c r="X34" t="n">
-        <v>2204.509362664224</v>
+        <v>2822.625983136954</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.509362664224</v>
+        <v>2599.513921953597</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1510.526376601847</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C35" t="n">
-        <v>1117.350875104777</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D35" t="n">
-        <v>731.9097463214448</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E35" t="n">
-        <v>329.3262214379893</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F35" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G35" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H35" t="n">
         <v>62.11912770411553</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>3067.963471491298</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U35" t="n">
-        <v>3067.963471491298</v>
+        <v>2739.566336579983</v>
       </c>
       <c r="V35" t="n">
-        <v>3067.963471491298</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="W35" t="n">
-        <v>2696.964436459586</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="X35" t="n">
-        <v>2307.511831392642</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="Y35" t="n">
-        <v>1911.021122313243</v>
+        <v>2397.459527283501</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>787.6208502301403</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L36" t="n">
-        <v>1271.186936128453</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M36" t="n">
-        <v>1898.958585755135</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N36" t="n">
-        <v>2554.736556965694</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>3071.256839556675</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>394.7969564187466</v>
+        <v>2687.673528482747</v>
       </c>
       <c r="C37" t="n">
-        <v>394.7969564187466</v>
+        <v>2517.468410548736</v>
       </c>
       <c r="D37" t="n">
-        <v>394.7969564187466</v>
+        <v>2361.835297451251</v>
       </c>
       <c r="E37" t="n">
-        <v>394.7969564187466</v>
+        <v>2361.835297451251</v>
       </c>
       <c r="F37" t="n">
-        <v>394.7969564187466</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G37" t="n">
-        <v>226.5429025181921</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H37" t="n">
-        <v>71.06435147968608</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I37" t="n">
-        <v>71.06435147968608</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>2872.881547174049</v>
       </c>
       <c r="U37" t="n">
-        <v>678.1273584875689</v>
+        <v>2872.881547174049</v>
       </c>
       <c r="V37" t="n">
-        <v>678.1273584875689</v>
+        <v>2872.881547174049</v>
       </c>
       <c r="W37" t="n">
-        <v>394.7969564187466</v>
+        <v>2872.881547174049</v>
       </c>
       <c r="X37" t="n">
-        <v>394.7969564187466</v>
+        <v>2872.881547174049</v>
       </c>
       <c r="Y37" t="n">
-        <v>394.7969564187466</v>
+        <v>2872.881547174049</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1181.96120451815</v>
+        <v>1606.90722673124</v>
       </c>
       <c r="C38" t="n">
-        <v>788.7857030210803</v>
+        <v>1606.90722673124</v>
       </c>
       <c r="D38" t="n">
-        <v>788.7857030210803</v>
+        <v>1606.90722673124</v>
       </c>
       <c r="E38" t="n">
-        <v>386.2021781376249</v>
+        <v>1204.323701847785</v>
       </c>
       <c r="F38" t="n">
-        <v>386.2021781376249</v>
+        <v>787.4292633777624</v>
       </c>
       <c r="G38" t="n">
-        <v>386.2021781376249</v>
+        <v>374.2665078657655</v>
       </c>
       <c r="H38" t="n">
         <v>62.11912770411553</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3071.024520492218</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>2904.510965433269</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T38" t="n">
-        <v>2681.010362992686</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U38" t="n">
-        <v>2681.010362992686</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2338.903553696204</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W38" t="n">
-        <v>1967.904518664492</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X38" t="n">
-        <v>1578.451913597549</v>
+        <v>2003.397935810639</v>
       </c>
       <c r="Y38" t="n">
-        <v>1181.96120451815</v>
+        <v>1606.90722673124</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.973980501895</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>2148.973980501895</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>963.5661502456679</v>
+        <v>512.3787863751909</v>
       </c>
       <c r="C40" t="n">
-        <v>963.5661502456679</v>
+        <v>342.1736684411801</v>
       </c>
       <c r="D40" t="n">
-        <v>862.2091751078208</v>
+        <v>342.1736684411801</v>
       </c>
       <c r="E40" t="n">
-        <v>706.6503629670233</v>
+        <v>342.1736684411801</v>
       </c>
       <c r="F40" t="n">
-        <v>549.3244281799962</v>
+        <v>184.847733654153</v>
       </c>
       <c r="G40" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
         <v>62.11912770411553</v>
@@ -7366,16 +7368,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="X40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1548.519290316325</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="C41" t="n">
-        <v>1155.343788819255</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="D41" t="n">
-        <v>769.902660035923</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="E41" t="n">
-        <v>769.902660035923</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F41" t="n">
-        <v>769.902660035923</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G41" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H41" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7439,22 +7441,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2759.385553422529</v>
       </c>
       <c r="V41" t="n">
-        <v>3105.956385205776</v>
+        <v>2759.385553422529</v>
       </c>
       <c r="W41" t="n">
-        <v>2734.957350174064</v>
+        <v>2388.386518390816</v>
       </c>
       <c r="X41" t="n">
-        <v>2345.50474510712</v>
+        <v>1998.933913323873</v>
       </c>
       <c r="Y41" t="n">
-        <v>1949.014036027722</v>
+        <v>1602.443204244474</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>494.9732559860694</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1122.744905612751</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>239.5922228383523</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
         <v>62.11912770411553</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>760.7500664282172</v>
+        <v>781.6339928861245</v>
       </c>
       <c r="T43" t="n">
-        <v>525.0310145964513</v>
+        <v>781.6339928861245</v>
       </c>
       <c r="U43" t="n">
-        <v>239.5922228383523</v>
+        <v>781.6339928861245</v>
       </c>
       <c r="V43" t="n">
-        <v>239.5922228383523</v>
+        <v>515.6546477069487</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5922228383523</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="X43" t="n">
-        <v>239.5922228383523</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="Y43" t="n">
-        <v>239.5922228383523</v>
+        <v>232.3242456381263</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1747.083653812648</v>
+        <v>1937.971895383268</v>
       </c>
       <c r="C44" t="n">
-        <v>1353.908152315579</v>
+        <v>1544.796393886198</v>
       </c>
       <c r="D44" t="n">
-        <v>968.4670235322465</v>
+        <v>1159.355265102866</v>
       </c>
       <c r="E44" t="n">
-        <v>803.0966166076471</v>
+        <v>756.7717402194105</v>
       </c>
       <c r="F44" t="n">
-        <v>386.2021781376249</v>
+        <v>339.8773017493883</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2460.189498140842</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2118.082688844361</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W44" t="n">
-        <v>1747.083653812648</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X44" t="n">
-        <v>1747.083653812648</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="Y44" t="n">
-        <v>1747.083653812648</v>
+        <v>2338.466641094665</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7730,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>381.858273766342</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
         <v>1458.313011372373</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.0436578814588</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C46" t="n">
-        <v>697.0436578814588</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D46" t="n">
-        <v>541.4105447839735</v>
+        <v>807.9330371481826</v>
       </c>
       <c r="E46" t="n">
-        <v>385.851732643176</v>
+        <v>652.3742250073851</v>
       </c>
       <c r="F46" t="n">
-        <v>385.851732643176</v>
+        <v>495.0482902203581</v>
       </c>
       <c r="G46" t="n">
-        <v>217.5976787426216</v>
+        <v>326.7942363198036</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>171.3156852812976</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7846,10 +7848,10 @@
         <v>963.5661502456679</v>
       </c>
       <c r="X46" t="n">
-        <v>882.2516765727601</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.2516765727601</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>136.3731801151487</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8231,7 +8233,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,16 +8297,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>684.2495388215582</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8535,10 +8537,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>603.5495674056833</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8550,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O12" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294505</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
@@ -9258,7 +9260,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684342</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9714,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,13 +9728,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9951,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>405.2562148204912</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,7 +10430,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10437,13 +10439,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10665,7 +10667,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10680,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.1334109295184</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10902,10 +10904,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10914,10 +10916,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>320.902235706038</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>709.3350389104421</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,16 +11378,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>517.3131487114046</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22601,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>51.15789175367431</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -22610,10 +22612,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>167.015442531929</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22710,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>240.3576544903974</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22796,10 +22798,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>273.9451308750988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,10 +22947,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>22.31857408728007</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>68.5636562174812</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.180826706138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,22 +23187,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408728007</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23227,16 +23229,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23270,13 +23272,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>300.206374421652</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>70.26927520960635</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>22.31857408728007</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23501,16 +23503,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>159.7715657241503</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>148.4927167066583</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>154.8494418714224</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>224.5574566382963</v>
+        <v>224.5574566382954</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>239.9864192780364</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.47292827764326</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>247.5312324499143</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>110.5774867114536</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
@@ -23987,7 +23989,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>114.9496573281176</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>98.13658888718183</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -24178,19 +24180,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.7173958532073</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24254,16 +24256,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>39.19615006989426</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24421,16 +24423,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>24.04094380275541</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>104.0045570257511</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>125.2166954771689</v>
       </c>
       <c r="I26" t="n">
-        <v>100.8851396960678</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,19 +24499,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24604,19 +24606,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>92.68333097786584</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24649,19 +24651,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>87.97172531928882</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>273.9451308750987</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>129.4118150200741</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24841,16 +24843,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>14.55738747233838</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>85.19344063234698</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
@@ -24898,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>61.90605388844364</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>56.3071971326392</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>114.8812735290898</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25126,13 +25128,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>167.3303626133472</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>148.190471288787</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>111.7346505463894</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>21.21871593434422</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>2.617771662037768</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25391,7 +25393,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25400,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>11.81631356914079</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.030438510911019</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>45.07019347101178</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>166.1213966160216</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>131.3556752205097</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25786,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25801,13 +25803,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0633699266785</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,19 +25836,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>20.67508719332812</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>234.8409867792675</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>134.0505356520568</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25913,16 +25915,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>23.65888910788262</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -26086,7 +26088,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>151.238190058668</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>649017.667526347</v>
+        <v>649017.6675263467</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>649017.667526347</v>
+        <v>649017.6675263467</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649017.6675263466</v>
+        <v>649017.6675263467</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>649017.6675263467</v>
+        <v>649017.6675263469</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649017.6675263469</v>
+        <v>649017.6675263467</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649017.6675263467</v>
+        <v>649017.667526347</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649017.6675263466</v>
+        <v>649017.6675263467</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254445.3498136759</v>
+        <v>254445.3498136761</v>
       </c>
       <c r="C2" t="n">
+        <v>254445.349813676</v>
+      </c>
+      <c r="D2" t="n">
         <v>254445.3498136761</v>
-      </c>
-      <c r="D2" t="n">
-        <v>254445.349813676</v>
       </c>
       <c r="E2" t="n">
         <v>254445.3498136761</v>
@@ -26329,13 +26331,13 @@
         <v>254445.3498136761</v>
       </c>
       <c r="H2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.3498136762</v>
       </c>
       <c r="I2" t="n">
-        <v>254445.3498136762</v>
+        <v>254445.349813676</v>
       </c>
       <c r="J2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="K2" t="n">
         <v>254445.3498136761</v>
@@ -26347,13 +26349,13 @@
         <v>254445.3498136761</v>
       </c>
       <c r="N2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="O2" t="n">
         <v>254445.3498136761</v>
       </c>
       <c r="P2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.7131126951</v>
+        <v>203163.713112695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,10 +26423,10 @@
         <v>13453.11359961299</v>
       </c>
       <c r="D4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="E4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="F4" t="n">
         <v>13453.11359961299</v>
@@ -26445,13 +26447,13 @@
         <v>13453.11359961299</v>
       </c>
       <c r="L4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="M4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="N4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="O4" t="n">
         <v>13453.11359961298</v>
@@ -26479,16 +26481,16 @@
         <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100065.2562608937</v>
+        <v>-100065.2562608935</v>
       </c>
       <c r="C6" t="n">
-        <v>160154.0991589354</v>
+        <v>160154.0991589352</v>
       </c>
       <c r="D6" t="n">
-        <v>160154.0991589352</v>
+        <v>160154.0991589353</v>
       </c>
       <c r="E6" t="n">
         <v>193781.6991589354</v>
       </c>
       <c r="F6" t="n">
-        <v>193781.6991589353</v>
+        <v>193781.6991589354</v>
       </c>
       <c r="G6" t="n">
         <v>193781.6991589353</v>
       </c>
       <c r="H6" t="n">
+        <v>193781.6991589354</v>
+      </c>
+      <c r="I6" t="n">
         <v>193781.6991589353</v>
       </c>
-      <c r="I6" t="n">
-        <v>193781.6991589354</v>
-      </c>
       <c r="J6" t="n">
-        <v>-9382.01395375975</v>
+        <v>-9382.013953759742</v>
       </c>
       <c r="K6" t="n">
-        <v>193781.6991589354</v>
+        <v>193781.6991589353</v>
       </c>
       <c r="L6" t="n">
-        <v>193781.6991589353</v>
+        <v>193781.6991589352</v>
       </c>
       <c r="M6" t="n">
         <v>193781.6991589353</v>
       </c>
       <c r="N6" t="n">
-        <v>193781.6991589354</v>
+        <v>193781.6991589352</v>
       </c>
       <c r="O6" t="n">
         <v>193781.6991589353</v>
       </c>
       <c r="P6" t="n">
-        <v>193781.6991589353</v>
+        <v>193781.6991589352</v>
       </c>
     </row>
   </sheetData>
@@ -26799,16 +26801,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34775,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>51.00106726098203</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34951,7 +34953,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>598.8774259673916</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35255,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>511.1624453563714</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35270,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O12" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110584</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260881</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,13 +36448,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>318.1728500011766</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37157,13 +37159,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37400,7 +37402,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.0500461102038</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37634,10 +37636,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>233.8188708867233</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>623.9629260562755</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>424.9260266620927</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1179816.941309272</v>
+        <v>1175283.118139775</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977805</v>
+        <v>7966425.477977806</v>
       </c>
     </row>
     <row r="9">
@@ -715,7 +715,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>225.5103594566759</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>218.5426364843447</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>147.8443769615978</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.58755128763757</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>146.9028497543237</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>131.6846499321094</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>327.9261420368017</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1150,10 +1150,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>114.976733278786</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>131.6846499321094</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>108.8247535352249</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>260.4059240983868</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>131.6846499321094</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -1666,16 +1666,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>190.1930244968585</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>319.6806636070552</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
@@ -1827,13 +1827,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1861,10 +1861,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.9683453503095</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>146.8340739597078</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.51067877009771</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>302.1480073738684</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>57.61608655197494</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>64.41872800020373</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>299.4895911336225</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2566,13 +2566,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>195.6255244520054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>207.6716809739539</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>61.24043455025512</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>374.5367297632453</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>123.7833872496733</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2860,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>81.37807272920193</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>182.0443891790698</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>317.4560555362658</v>
       </c>
       <c r="H32" t="n">
-        <v>264.535022796535</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53.62179322558088</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3280,10 +3280,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>256.7115579699411</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>141.460551723358</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.7440896514104</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3517,10 +3517,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>219.0985733926077</v>
       </c>
       <c r="H38" t="n">
-        <v>309.0259063600334</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>121.5013198905371</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>229.2671475085632</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>121.8395270492377</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>180.112835785948</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>128.5631274482085</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -3991,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>274.98059230482</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>233.2385090293384</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4146,16 +4146,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>108.1045920014103</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>149.9316827539818</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4330,19 +4330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
@@ -4363,16 +4363,16 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>2677.949313991765</v>
+        <v>2450.161072116335</v>
       </c>
       <c r="V2" t="n">
-        <v>2677.949313991765</v>
+        <v>2450.161072116335</v>
       </c>
       <c r="W2" t="n">
-        <v>2677.949313991765</v>
+        <v>2450.161072116335</v>
       </c>
       <c r="X2" t="n">
-        <v>2457.199176128791</v>
+        <v>2060.708467049392</v>
       </c>
       <c r="Y2" t="n">
         <v>2060.708467049392</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C3" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D3" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E3" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G3" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I3" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J3" t="n">
-        <v>175.2341099238429</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K3" t="n">
-        <v>175.2341099238429</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="L3" t="n">
-        <v>175.2341099238429</v>
+        <v>1384.301918348181</v>
       </c>
       <c r="M3" t="n">
-        <v>803.0057595505241</v>
+        <v>2012.073567974862</v>
       </c>
       <c r="N3" t="n">
-        <v>1223.947919817482</v>
+        <v>2667.851539185421</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="Q3" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R3" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S3" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T3" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U3" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V3" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W3" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X3" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y3" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>373.1564908834191</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4515,25 +4515,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>963.5661502456679</v>
+        <v>814.2283957390034</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>814.2283957390034</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840.7357579845172</v>
+        <v>1178.900155517229</v>
       </c>
       <c r="C5" t="n">
-        <v>447.5602564874478</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="D5" t="n">
-        <v>62.11912770411553</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="E5" t="n">
-        <v>62.11912770411553</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F5" t="n">
-        <v>62.11912770411553</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G5" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4600,19 +4600,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>2422.196584426364</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V5" t="n">
-        <v>2080.089775129883</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W5" t="n">
-        <v>1709.09074009817</v>
+        <v>1964.843469663571</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.638135031227</v>
+        <v>1575.390864596628</v>
       </c>
       <c r="Y5" t="n">
-        <v>923.1474259518279</v>
+        <v>1178.900155517229</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M6" t="n">
-        <v>1173.45686322911</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>839.6651608782449</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="U7" t="n">
-        <v>839.6651608782449</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V7" t="n">
-        <v>839.6651608782449</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W7" t="n">
-        <v>839.6651608782449</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X7" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2211.713593757527</v>
+        <v>1410.897960992606</v>
       </c>
       <c r="C8" t="n">
-        <v>1818.538092260458</v>
+        <v>1410.897960992606</v>
       </c>
       <c r="D8" t="n">
-        <v>1433.096963477125</v>
+        <v>1410.897960992606</v>
       </c>
       <c r="E8" t="n">
-        <v>1030.51343859367</v>
+        <v>1008.314436109151</v>
       </c>
       <c r="F8" t="n">
-        <v>613.6190001236475</v>
+        <v>591.4199976391286</v>
       </c>
       <c r="G8" t="n">
-        <v>200.4562446116507</v>
+        <v>178.2572421271317</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4840,16 +4840,16 @@
         <v>2939.442830146827</v>
       </c>
       <c r="V8" t="n">
-        <v>2939.442830146827</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W8" t="n">
-        <v>2939.442830146827</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="X8" t="n">
-        <v>2939.442830146827</v>
+        <v>2207.883415783402</v>
       </c>
       <c r="Y8" t="n">
-        <v>2542.952121067428</v>
+        <v>1811.392706704003</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L9" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M9" t="n">
-        <v>802.5350401618138</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>839.6651608782449</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U10" t="n">
-        <v>839.6651608782449</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V10" t="n">
-        <v>839.6651608782449</v>
+        <v>461.8677532347263</v>
       </c>
       <c r="W10" t="n">
-        <v>839.6651608782449</v>
+        <v>178.5373511659039</v>
       </c>
       <c r="X10" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>950.6597514544414</v>
+        <v>1656.48203837997</v>
       </c>
       <c r="C11" t="n">
-        <v>557.484249957372</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="D11" t="n">
-        <v>172.0431211740397</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E11" t="n">
-        <v>172.0431211740397</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F11" t="n">
-        <v>172.0431211740397</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G11" t="n">
         <v>62.11912770411553</v>
@@ -5059,7 +5059,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5074,19 +5074,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2850.203655640375</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2508.096846343893</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>2137.097811312181</v>
+        <v>2842.920098237709</v>
       </c>
       <c r="X11" t="n">
-        <v>1747.645206245237</v>
+        <v>2453.467493170765</v>
       </c>
       <c r="Y11" t="n">
-        <v>1351.154497165838</v>
+        <v>2056.976784091366</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5223,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>839.6651608782449</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U13" t="n">
-        <v>839.6651608782449</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V13" t="n">
-        <v>839.6651608782449</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1433.096963477125</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="C14" t="n">
-        <v>1433.096963477125</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="D14" t="n">
-        <v>1433.096963477125</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E14" t="n">
-        <v>1030.51343859367</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F14" t="n">
-        <v>613.6190001236475</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G14" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H14" t="n">
         <v>200.4562446116507</v>
@@ -5314,16 +5314,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V14" t="n">
-        <v>2230.082418267921</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W14" t="n">
-        <v>2230.082418267921</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="X14" t="n">
-        <v>2230.082418267921</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="Y14" t="n">
-        <v>1833.591709188522</v>
+        <v>1757.180013910635</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5466,19 +5466,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U16" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V16" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W16" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
         <v>62.11912770411553</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2535.796644191037</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C17" t="n">
-        <v>2142.621142693967</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5539,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X17" t="n">
-        <v>3105.956385205776</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y17" t="n">
-        <v>2936.291389902433</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5697,28 +5697,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>839.6651608782449</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U19" t="n">
-        <v>554.2263691201458</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="V19" t="n">
-        <v>288.2470239409701</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W19" t="n">
-        <v>247.3271463954168</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X19" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1548.519290316325</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C20" t="n">
-        <v>1155.343788819255</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D20" t="n">
-        <v>769.902660035923</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>367.3191351524675</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
         <v>62.11912770411553</v>
@@ -5791,13 +5791,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="W20" t="n">
-        <v>2734.957350174064</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X20" t="n">
-        <v>2345.50474510712</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y20" t="n">
-        <v>1949.014036027722</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1554259598287</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C22" t="n">
-        <v>275.9503080258179</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D22" t="n">
-        <v>120.3171949283326</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E22" t="n">
-        <v>120.3171949283326</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="H22" t="n">
         <v>62.11912770411553</v>
@@ -5943,19 +5943,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V22" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W22" t="n">
-        <v>680.2357481768456</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X22" t="n">
-        <v>446.1554259598287</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.1554259598287</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1757.180013910635</v>
+        <v>1753.004770289088</v>
       </c>
       <c r="C23" t="n">
-        <v>1757.180013910635</v>
+        <v>1359.829268792018</v>
       </c>
       <c r="D23" t="n">
-        <v>1757.180013910635</v>
+        <v>1359.829268792018</v>
       </c>
       <c r="E23" t="n">
-        <v>1354.596489027179</v>
+        <v>957.2457439085626</v>
       </c>
       <c r="F23" t="n">
-        <v>937.702050557157</v>
+        <v>540.3513054385404</v>
       </c>
       <c r="G23" t="n">
-        <v>524.5392950451601</v>
+        <v>127.1885499265435</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6019,22 +6019,22 @@
         <v>2939.442830146827</v>
       </c>
       <c r="T23" t="n">
-        <v>2715.942227706244</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U23" t="n">
-        <v>2460.189498140842</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V23" t="n">
-        <v>2157.674759622032</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W23" t="n">
-        <v>2157.674759622032</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X23" t="n">
-        <v>2157.674759622032</v>
+        <v>2549.990225079884</v>
       </c>
       <c r="Y23" t="n">
-        <v>2157.674759622032</v>
+        <v>2153.499516000485</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>346.9752758473783</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>830.5413617456916</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6177,19 +6177,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V25" t="n">
-        <v>697.5868050664922</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W25" t="n">
-        <v>414.2564029976698</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>180.1760807806529</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
         <v>62.11912770411553</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2270.978016700502</v>
+        <v>1656.48203837997</v>
       </c>
       <c r="C26" t="n">
-        <v>1877.802515203433</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="D26" t="n">
-        <v>1492.361386420101</v>
+        <v>877.8654080995678</v>
       </c>
       <c r="E26" t="n">
-        <v>1089.777861536645</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F26" t="n">
-        <v>672.8834230666229</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G26" t="n">
-        <v>259.720667554626</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L26" t="n">
         <v>1059.071548358934</v>
@@ -6244,34 +6244,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P26" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q26" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>3067.963471491298</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="U26" t="n">
-        <v>3067.963471491298</v>
+        <v>2626.703053199791</v>
       </c>
       <c r="V26" t="n">
-        <v>3067.963471491298</v>
+        <v>2416.933678478626</v>
       </c>
       <c r="W26" t="n">
-        <v>3067.963471491298</v>
+        <v>2045.934643446913</v>
       </c>
       <c r="X26" t="n">
-        <v>3067.963471491298</v>
+        <v>1656.48203837997</v>
       </c>
       <c r="Y26" t="n">
-        <v>2671.472762411899</v>
+        <v>1656.48203837997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2009.716291882317</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C28" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D28" t="n">
-        <v>605.116953330732</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E28" t="n">
-        <v>449.5581411899345</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F28" t="n">
-        <v>292.2322064029075</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G28" t="n">
-        <v>123.978152502353</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H28" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I28" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J28" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K28" t="n">
         <v>143.9541688140574</v>
@@ -6411,25 +6411,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>760.7500664282172</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U28" t="n">
-        <v>760.7500664282172</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V28" t="n">
-        <v>760.7500664282172</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W28" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X28" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>857.8781540846405</v>
+        <v>1164.818808418026</v>
       </c>
       <c r="C29" t="n">
-        <v>464.702652587571</v>
+        <v>771.6433069209571</v>
       </c>
       <c r="D29" t="n">
-        <v>464.702652587571</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E29" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J29" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K29" t="n">
         <v>565.7512566404057</v>
@@ -6481,34 +6481,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T29" t="n">
-        <v>2882.455782765193</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="U29" t="n">
-        <v>2757.422058270573</v>
+        <v>2645.697186866947</v>
       </c>
       <c r="V29" t="n">
-        <v>2415.315248974092</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="W29" t="n">
-        <v>2044.316213942379</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="X29" t="n">
-        <v>1654.863608875436</v>
+        <v>1543.13873747181</v>
       </c>
       <c r="Y29" t="n">
-        <v>1258.372899796037</v>
+        <v>1543.13873747181</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J30" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K30" t="n">
-        <v>494.9732559860694</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L30" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N30" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O30" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P30" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>457.1236869934889</v>
+        <v>230.37318160467</v>
       </c>
       <c r="C31" t="n">
-        <v>457.1236869934889</v>
+        <v>230.37318160467</v>
       </c>
       <c r="D31" t="n">
-        <v>457.1236869934889</v>
+        <v>230.37318160467</v>
       </c>
       <c r="E31" t="n">
-        <v>457.1236869934889</v>
+        <v>230.37318160467</v>
       </c>
       <c r="F31" t="n">
-        <v>299.7977522064619</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G31" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H31" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J31" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K31" t="n">
         <v>143.9541688140574</v>
@@ -6654,19 +6654,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>963.5661502456679</v>
+        <v>779.6829288526682</v>
       </c>
       <c r="V31" t="n">
-        <v>963.5661502456679</v>
+        <v>513.7035836734924</v>
       </c>
       <c r="W31" t="n">
-        <v>680.2357481768456</v>
+        <v>230.37318160467</v>
       </c>
       <c r="X31" t="n">
-        <v>680.2357481768456</v>
+        <v>230.37318160467</v>
       </c>
       <c r="Y31" t="n">
-        <v>457.1236869934889</v>
+        <v>230.37318160467</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1510.526376601847</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C32" t="n">
-        <v>1117.350875104777</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="D32" t="n">
-        <v>731.9097463214448</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="E32" t="n">
-        <v>329.3262214379893</v>
+        <v>1123.759298967512</v>
       </c>
       <c r="F32" t="n">
-        <v>329.3262214379893</v>
+        <v>706.8648604974893</v>
       </c>
       <c r="G32" t="n">
-        <v>329.3262214379893</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L32" t="n">
         <v>1059.071548358934</v>
@@ -6718,34 +6718,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W32" t="n">
-        <v>2696.964436459586</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X32" t="n">
-        <v>2307.511831392642</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y32" t="n">
-        <v>1911.021122313243</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K33" t="n">
-        <v>346.9752758473783</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L33" t="n">
-        <v>830.5413617456916</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O33" t="n">
         <v>1974.833293963354</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2414.305903262296</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C34" t="n">
-        <v>2360.142475761709</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W34" t="n">
-        <v>2822.625983136954</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X34" t="n">
-        <v>2822.625983136954</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y34" t="n">
-        <v>2599.513921953597</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2397.459527283501</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C35" t="n">
-        <v>2004.284025786432</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="D35" t="n">
-        <v>1618.8428970031</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E35" t="n">
-        <v>1216.259372119644</v>
+        <v>738.3181701841793</v>
       </c>
       <c r="F35" t="n">
-        <v>799.3649336496217</v>
+        <v>321.423731714157</v>
       </c>
       <c r="G35" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6955,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6967,22 +6967,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U35" t="n">
-        <v>2739.566336579983</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V35" t="n">
-        <v>2397.459527283501</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W35" t="n">
-        <v>2397.459527283501</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X35" t="n">
-        <v>2397.459527283501</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y35" t="n">
-        <v>2397.459527283501</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2687.673528482747</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C37" t="n">
-        <v>2517.468410548736</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D37" t="n">
-        <v>2361.835297451251</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E37" t="n">
-        <v>2361.835297451251</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>2872.881547174049</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U37" t="n">
-        <v>2872.881547174049</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V37" t="n">
-        <v>2872.881547174049</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W37" t="n">
-        <v>2872.881547174049</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X37" t="n">
-        <v>2872.881547174049</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y37" t="n">
-        <v>2872.881547174049</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1606.90722673124</v>
+        <v>1881.525411633558</v>
       </c>
       <c r="C38" t="n">
-        <v>1606.90722673124</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D38" t="n">
-        <v>1606.90722673124</v>
+        <v>1102.908781353157</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.323701847785</v>
+        <v>700.3252564697011</v>
       </c>
       <c r="F38" t="n">
-        <v>787.4292633777624</v>
+        <v>283.4308179996789</v>
       </c>
       <c r="G38" t="n">
-        <v>374.2665078657655</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K38" t="n">
         <v>565.7512566404055</v>
@@ -7192,34 +7192,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V38" t="n">
-        <v>2763.849575909295</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W38" t="n">
-        <v>2392.850540877582</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X38" t="n">
-        <v>2003.397935810639</v>
+        <v>2678.510866424354</v>
       </c>
       <c r="Y38" t="n">
-        <v>1606.90722673124</v>
+        <v>2282.020157344955</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L39" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>512.3787863751909</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C40" t="n">
-        <v>342.1736684411801</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D40" t="n">
-        <v>342.1736684411801</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E40" t="n">
-        <v>342.1736684411801</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F40" t="n">
-        <v>184.847733654153</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7359,25 +7359,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>963.5661502456679</v>
+        <v>847.1479267838795</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V40" t="n">
-        <v>697.5868050664922</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W40" t="n">
-        <v>697.5868050664922</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X40" t="n">
-        <v>697.5868050664922</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y40" t="n">
-        <v>697.5868050664922</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1201.948458533077</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C41" t="n">
-        <v>1201.948458533077</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="D41" t="n">
-        <v>1201.948458533077</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>799.3649336496217</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F41" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7429,7 +7429,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7441,22 +7441,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2759.385553422529</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2759.385553422529</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W41" t="n">
-        <v>2388.386518390816</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X41" t="n">
-        <v>1998.933913323873</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y41" t="n">
-        <v>1602.443204244474</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>232.3242456381263</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7596,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>781.6339928861245</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T43" t="n">
-        <v>781.6339928861245</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U43" t="n">
-        <v>781.6339928861245</v>
+        <v>475.3112746701182</v>
       </c>
       <c r="V43" t="n">
-        <v>515.6546477069487</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W43" t="n">
-        <v>232.3242456381263</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X43" t="n">
-        <v>232.3242456381263</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y43" t="n">
-        <v>232.3242456381263</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1937.971895383268</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C44" t="n">
-        <v>1544.796393886198</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D44" t="n">
-        <v>1159.355265102866</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>756.7717402194105</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F44" t="n">
-        <v>339.8773017493883</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7666,7 +7666,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7687,13 +7687,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="W44" t="n">
-        <v>2734.957350174064</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X44" t="n">
-        <v>2734.957350174064</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y44" t="n">
-        <v>2338.466641094665</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L45" t="n">
         <v>545.6852136024288</v>
@@ -7739,13 +7739,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
       <c r="C46" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
       <c r="D46" t="n">
-        <v>807.9330371481826</v>
+        <v>373.1564908834191</v>
       </c>
       <c r="E46" t="n">
-        <v>652.3742250073851</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="F46" t="n">
-        <v>495.0482902203581</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="G46" t="n">
-        <v>326.7942363198036</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H46" t="n">
-        <v>171.3156852812976</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
@@ -7839,19 +7839,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>963.5661502456679</v>
+        <v>812.1200060497267</v>
       </c>
       <c r="V46" t="n">
-        <v>963.5661502456679</v>
+        <v>812.1200060497267</v>
       </c>
       <c r="W46" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
       <c r="X46" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.5661502456679</v>
+        <v>528.7896039809043</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>510.5662141339224</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>298.4852906721864</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8303,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N6" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8537,13 +8537,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>684.2495388215582</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8947,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9014,13 +9014,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095475</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>117.494503443537</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,16 +9716,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>263.0728605086217</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9962,7 +9962,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -9971,10 +9971,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>461.5665676450056</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,10 +10199,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10430,7 +10430,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>377.3304183063261</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10439,10 +10439,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,10 +10904,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10916,10 +10916,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11138,13 +11138,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11156,7 +11156,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.3264449482919</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11387,7 +11387,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>373.1055958271594</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11396,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>27.68484281307147</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -22612,10 +22612,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>167.015442531929</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22755,13 +22755,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>52.94354601767827</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>314.9022469666454</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>242.3408967277749</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22950,22 +22950,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>22.31857408728007</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.5636562174812</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>205.8654866503882</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23187,22 +23187,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>22.31857408728007</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>116.4854777676763</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>300.206374421652</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23314,13 +23314,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>106.8831205830086</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>22.31857408728007</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>148.4927167066583</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>47.60838107434023</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23706,7 +23706,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.8494418714224</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -23797,10 +23797,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>239.9864192780364</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>110.5774867114536</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24031,7 +24031,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>98.13658888718183</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>87.89226682802024</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24183,16 +24183,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>256.4234919289705</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>39.19615006989426</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>104.0045570257511</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>125.2166954771689</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>131.0140602295629</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24606,19 +24606,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>92.68333097786584</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24651,19 +24651,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>21.95306849103758</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -24697,7 +24697,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>129.4118150200741</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24849,13 +24849,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>85.19344063234698</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24894,10 +24894,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>100.5400146614483</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>91.57507242061104</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3071971326392</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -24979,7 +24979,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>114.8812735290898</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25131,19 +25131,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>152.3195699869357</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25207,22 +25207,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>111.7346505463894</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
@@ -25365,16 +25365,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>2.617771662037768</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>189.9325545642691</v>
       </c>
       <c r="H38" t="n">
-        <v>11.81631356914079</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25450,10 +25450,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25560,10 +25560,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>45.07019347101178</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25599,10 +25599,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>85.53388175210557</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>152.3195699869357</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25681,16 +25681,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>131.3556752205097</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25836,16 +25836,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>20.67508719332812</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>134.7564242791755</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>134.0505356520568</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25927,10 +25927,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>152.3195699869354</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>23.65888910788262</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -26079,13 +26079,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>132.6527210865363</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>649017.6675263467</v>
+        <v>649017.6675263469</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>649017.6675263467</v>
+        <v>649017.6675263469</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649017.6675263467</v>
+        <v>649017.6675263466</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>649017.6675263469</v>
+        <v>649017.6675263467</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649017.6675263467</v>
+        <v>649017.667526347</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649017.667526347</v>
+        <v>649017.6675263469</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649017.6675263469</v>
+        <v>649017.6675263467</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649017.667526347</v>
+        <v>649017.6675263467</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649017.6675263467</v>
+        <v>649017.6675263465</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>254445.3498136761</v>
       </c>
       <c r="C2" t="n">
-        <v>254445.349813676</v>
+        <v>254445.3498136761</v>
       </c>
       <c r="D2" t="n">
         <v>254445.3498136761</v>
@@ -26325,19 +26325,19 @@
         <v>254445.3498136761</v>
       </c>
       <c r="F2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="G2" t="n">
         <v>254445.3498136761</v>
       </c>
       <c r="H2" t="n">
-        <v>254445.3498136762</v>
+        <v>254445.3498136761</v>
       </c>
       <c r="I2" t="n">
         <v>254445.349813676</v>
       </c>
       <c r="J2" t="n">
-        <v>254445.349813676</v>
+        <v>254445.3498136761</v>
       </c>
       <c r="K2" t="n">
         <v>254445.3498136761</v>
@@ -26352,7 +26352,7 @@
         <v>254445.349813676</v>
       </c>
       <c r="O2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.3498136759</v>
       </c>
       <c r="P2" t="n">
         <v>254445.349813676</v>
@@ -26426,10 +26426,10 @@
         <v>13453.11359961298</v>
       </c>
       <c r="E4" t="n">
+        <v>13453.11359961299</v>
+      </c>
+      <c r="F4" t="n">
         <v>13453.11359961298</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13453.11359961299</v>
       </c>
       <c r="G4" t="n">
         <v>13453.11359961298</v>
@@ -26441,25 +26441,25 @@
         <v>13453.11359961299</v>
       </c>
       <c r="J4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="K4" t="n">
         <v>13453.11359961299</v>
       </c>
       <c r="L4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="M4" t="n">
         <v>13453.11359961298</v>
       </c>
       <c r="N4" t="n">
+        <v>13453.11359961299</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13453.11359961299</v>
+      </c>
+      <c r="P4" t="n">
         <v>13453.11359961298</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13453.11359961298</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13453.11359961299</v>
       </c>
     </row>
     <row r="5">
@@ -26493,25 +26493,25 @@
         <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="K5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="L5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="M5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100065.2562608935</v>
+        <v>-100596.3512927587</v>
       </c>
       <c r="C6" t="n">
-        <v>160154.0991589352</v>
+        <v>159623.0041270701</v>
       </c>
       <c r="D6" t="n">
-        <v>160154.0991589353</v>
+        <v>159623.0041270701</v>
       </c>
       <c r="E6" t="n">
-        <v>193781.6991589354</v>
+        <v>193250.6041270701</v>
       </c>
       <c r="F6" t="n">
-        <v>193781.6991589354</v>
+        <v>193250.60412707</v>
       </c>
       <c r="G6" t="n">
-        <v>193781.6991589353</v>
+        <v>193250.6041270702</v>
       </c>
       <c r="H6" t="n">
-        <v>193781.6991589354</v>
+        <v>193250.6041270701</v>
       </c>
       <c r="I6" t="n">
-        <v>193781.6991589353</v>
+        <v>193250.60412707</v>
       </c>
       <c r="J6" t="n">
-        <v>-9382.013953759742</v>
+        <v>-9913.108985624895</v>
       </c>
       <c r="K6" t="n">
-        <v>193781.6991589353</v>
+        <v>193250.6041270702</v>
       </c>
       <c r="L6" t="n">
-        <v>193781.6991589352</v>
+        <v>193250.60412707</v>
       </c>
       <c r="M6" t="n">
-        <v>193781.6991589353</v>
+        <v>193250.6041270701</v>
       </c>
       <c r="N6" t="n">
-        <v>193781.6991589352</v>
+        <v>193250.60412707</v>
       </c>
       <c r="O6" t="n">
-        <v>193781.6991589353</v>
+        <v>193250.60412707</v>
       </c>
       <c r="P6" t="n">
-        <v>193781.6991589352</v>
+        <v>193250.60412707</v>
       </c>
     </row>
   </sheetData>
@@ -26813,25 +26813,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="K4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>425.1941012797557</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>205.7977317832975</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -35023,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N6" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>598.8774259673916</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35734,13 +35734,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553808</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35898,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>35.0500461102036</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>173.4759251752883</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36682,7 +36682,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>374.483202825691</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36919,10 +36919,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37159,10 +37159,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37636,10 +37636,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37876,7 +37876,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>287.7334829729927</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38116,7 +38116,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
